--- a/TP1/Mediciones/bode_pb_medido.xlsx
+++ b/TP1/Mediciones/bode_pb_medido.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96354254-D9D3-4385-A30B-B230950A1EE0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04609A67-6C21-49A9-903D-B8E437F81A19}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>vi</t>
   </si>
@@ -40,7 +40,13 @@
     <t>ratio</t>
   </si>
   <si>
-    <t>phase</t>
+    <t>fase</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>freq</t>
   </si>
 </sst>
 </file>
@@ -358,15 +364,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F76"/>
+  <dimension ref="B3:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -380,10 +386,16 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0.1</v>
       </c>
@@ -400,8 +412,16 @@
       <c r="F4">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <f>F4*-1</f>
+        <v>-0.72</v>
+      </c>
+      <c r="I4">
+        <f>B4*1000</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0.2</v>
       </c>
@@ -418,8 +438,16 @@
       <c r="F5">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <f t="shared" ref="G5:G68" si="1">F5*-1</f>
+        <v>-0.72</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I68" si="2">B5*1000</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>0.3</v>
       </c>
@@ -436,8 +464,16 @@
       <c r="F6">
         <v>1.081</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>-1.081</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>0.4</v>
       </c>
@@ -454,8 +490,16 @@
       <c r="F7">
         <v>1.1519999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-1.1519999999999999</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0.5</v>
       </c>
@@ -472,8 +516,16 @@
       <c r="F8">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-1.44</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>0.6</v>
       </c>
@@ -490,8 +542,16 @@
       <c r="F9">
         <v>1.7270000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-1.7270000000000001</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>0.7</v>
       </c>
@@ -508,8 +568,16 @@
       <c r="F10">
         <v>2.0169999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-2.0169999999999999</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0.8</v>
       </c>
@@ -526,8 +594,16 @@
       <c r="F11">
         <v>2.3039999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-2.3039999999999998</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>0.9</v>
       </c>
@@ -544,8 +620,16 @@
       <c r="F12">
         <v>2.59</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-2.59</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1</v>
       </c>
@@ -562,8 +646,16 @@
       <c r="F13">
         <v>2.88</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-2.88</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1.1000000000000001</v>
       </c>
@@ -580,8 +672,16 @@
       <c r="F14">
         <v>3.1720000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-3.1720000000000002</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1.2</v>
       </c>
@@ -598,8 +698,16 @@
       <c r="F15">
         <v>3.4609999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-3.4609999999999999</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>1.3</v>
       </c>
@@ -616,8 +724,16 @@
       <c r="F16">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>-3.75</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1.4</v>
       </c>
@@ -634,8 +750,16 @@
       <c r="F17">
         <v>4.0339999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>-4.0339999999999998</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1.5</v>
       </c>
@@ -652,8 +776,16 @@
       <c r="F18">
         <v>4.3179999999999996</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>-4.3179999999999996</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1.6</v>
       </c>
@@ -670,8 +802,16 @@
       <c r="F19">
         <v>4.6079999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>-4.6079999999999997</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1.7</v>
       </c>
@@ -688,8 +828,16 @@
       <c r="F20">
         <v>4.8979999999999997</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>-4.8979999999999997</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1.8</v>
       </c>
@@ -706,8 +854,16 @@
       <c r="F21">
         <v>5.18</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>-5.18</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1.9</v>
       </c>
@@ -724,8 +880,16 @@
       <c r="F22">
         <v>5.4749999999999996</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-5.4749999999999996</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>2</v>
       </c>
@@ -742,8 +906,16 @@
       <c r="F23">
         <v>5.76</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>-5.76</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2.1</v>
       </c>
@@ -760,8 +932,16 @@
       <c r="F24">
         <v>6.05</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>-6.05</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>2.2000000000000002</v>
       </c>
@@ -778,8 +958,16 @@
       <c r="F25">
         <v>6.3440000000000003</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>-6.3440000000000003</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>2.2999999999999998</v>
       </c>
@@ -796,8 +984,16 @@
       <c r="F26">
         <v>6.6210000000000004</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>-6.6210000000000004</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>2.4</v>
       </c>
@@ -814,8 +1010,16 @@
       <c r="F27">
         <v>6.9059999999999997</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>-6.9059999999999997</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>2.5</v>
       </c>
@@ -832,8 +1036,16 @@
       <c r="F28">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>-7.2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>2.6</v>
       </c>
@@ -850,8 +1062,16 @@
       <c r="F29">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>-7.5</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>2.7</v>
       </c>
@@ -868,8 +1088,16 @@
       <c r="F30">
         <v>7.7839999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-7.7839999999999998</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>2.8</v>
       </c>
@@ -886,8 +1114,16 @@
       <c r="F31">
         <v>8.0670000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>-8.0670000000000002</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>2.9</v>
       </c>
@@ -904,8 +1140,16 @@
       <c r="F32">
         <v>8.3480000000000008</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>-8.3480000000000008</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>3</v>
       </c>
@@ -922,8 +1166,16 @@
       <c r="F33">
         <v>8.6489999999999991</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>-8.6489999999999991</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>3.1</v>
       </c>
@@ -940,8 +1192,16 @@
       <c r="F34">
         <v>8.9440000000000008</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>-8.9440000000000008</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>3.2</v>
       </c>
@@ -958,8 +1218,16 @@
       <c r="F35">
         <v>9.2309999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>-9.2309999999999999</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>3.3</v>
       </c>
@@ -976,8 +1244,16 @@
       <c r="F36">
         <v>9.5050000000000008</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>-9.5050000000000008</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>3.4</v>
       </c>
@@ -994,8 +1270,16 @@
       <c r="F37">
         <v>9.7959999999999994</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>-9.7959999999999994</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>3.5</v>
       </c>
@@ -1012,8 +1296,16 @@
       <c r="F38">
         <v>10.07</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>-10.07</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>3.6</v>
       </c>
@@ -1030,8 +1322,16 @@
       <c r="F39">
         <v>10.36</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>-10.36</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>4</v>
       </c>
@@ -1048,8 +1348,16 @@
       <c r="F40">
         <v>11.52</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>-11.52</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>4.5</v>
       </c>
@@ -1066,8 +1374,16 @@
       <c r="F41">
         <v>12.97</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>-12.97</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>5</v>
       </c>
@@ -1084,8 +1400,16 @@
       <c r="F42">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>-14.4</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>5.5</v>
       </c>
@@ -1102,8 +1426,16 @@
       <c r="F43">
         <v>15.82</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>-15.82</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>6</v>
       </c>
@@ -1120,8 +1452,16 @@
       <c r="F44">
         <v>17.350000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>-17.350000000000001</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>6.5</v>
       </c>
@@ -1138,8 +1478,16 @@
       <c r="F45">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>-18.7</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>7</v>
       </c>
@@ -1156,8 +1504,16 @@
       <c r="F46">
         <v>20.14</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>-20.14</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>7.5</v>
       </c>
@@ -1174,8 +1530,16 @@
       <c r="F47">
         <v>21.65</v>
       </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>-21.65</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>8</v>
       </c>
@@ -1192,8 +1556,16 @@
       <c r="F48">
         <v>23.04</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>-23.04</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>9</v>
       </c>
@@ -1210,8 +1582,16 @@
       <c r="F49">
         <v>25.99</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>-25.99</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>10</v>
       </c>
@@ -1228,8 +1608,16 @@
       <c r="F50">
         <v>26.64</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>-26.64</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>11</v>
       </c>
@@ -1246,8 +1634,16 @@
       <c r="F51">
         <v>30.13</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>-30.13</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>12</v>
       </c>
@@ -1264,8 +1660,16 @@
       <c r="F52">
         <v>31.94</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>-31.94</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>13</v>
       </c>
@@ -1282,8 +1686,16 @@
       <c r="F53">
         <v>34.6</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>-34.6</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>14</v>
       </c>
@@ -1300,8 +1712,16 @@
       <c r="F54">
         <v>36.299999999999997</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>14.5</v>
       </c>
@@ -1318,8 +1738,16 @@
       <c r="F55">
         <v>37.56</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>-37.56</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>15</v>
       </c>
@@ -1336,8 +1764,16 @@
       <c r="F56">
         <v>38.92</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>-38.92</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>15.5</v>
       </c>
@@ -1354,8 +1790,16 @@
       <c r="F57">
         <v>39.299999999999997</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>16</v>
       </c>
@@ -1372,8 +1816,16 @@
       <c r="F58">
         <v>40.380000000000003</v>
       </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>-40.380000000000003</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>16.5</v>
       </c>
@@ -1390,8 +1842,16 @@
       <c r="F59">
         <v>41.58</v>
       </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>-41.58</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>17</v>
       </c>
@@ -1408,8 +1868,16 @@
       <c r="F60">
         <v>42.86</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>-42.86</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>18</v>
       </c>
@@ -1426,8 +1894,16 @@
       <c r="F61">
         <v>44.03</v>
       </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>-44.03</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>19</v>
       </c>
@@ -1444,8 +1920,16 @@
       <c r="F62">
         <v>45.17</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>-45.17</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>20</v>
       </c>
@@ -1462,8 +1946,16 @@
       <c r="F63">
         <v>46.8</v>
       </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>-46.8</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>25</v>
       </c>
@@ -1480,8 +1972,16 @@
       <c r="F64">
         <v>54</v>
       </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>-54</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>30</v>
       </c>
@@ -1498,8 +1998,16 @@
       <c r="F65">
         <v>58.38</v>
       </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>-58.38</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>40</v>
       </c>
@@ -1516,8 +2024,16 @@
       <c r="F66">
         <v>66.239999999999995</v>
       </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>-66.239999999999995</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>50</v>
       </c>
@@ -1534,8 +2050,16 @@
       <c r="F67">
         <v>69.12</v>
       </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>-69.12</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>60</v>
       </c>
@@ -1552,8 +2076,16 @@
       <c r="F68">
         <v>72</v>
       </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>-72</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>70</v>
       </c>
@@ -1570,8 +2102,16 @@
       <c r="F69">
         <v>74.62</v>
       </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G69">
+        <f t="shared" ref="G69:G75" si="3">F69*-1</f>
+        <v>-74.62</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ref="I69:I76" si="4">B69*1000</f>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>80</v>
       </c>
@@ -1588,8 +2128,16 @@
       <c r="F70">
         <v>76.150000000000006</v>
       </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>-76.150000000000006</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="4"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>90</v>
       </c>
@@ -1606,8 +2154,16 @@
       <c r="F71">
         <v>77.98</v>
       </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>-77.98</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>100</v>
       </c>
@@ -1624,8 +2180,16 @@
       <c r="F72">
         <v>78</v>
       </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>-78</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>200</v>
       </c>
@@ -1642,8 +2206,16 @@
       <c r="F73">
         <v>82.8</v>
       </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>-82.8</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="4"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>300</v>
       </c>
@@ -1660,8 +2232,16 @@
       <c r="F74">
         <v>84.15</v>
       </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>-84.15</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="4"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>400</v>
       </c>
@@ -1678,8 +2258,16 @@
       <c r="F75">
         <v>86.4</v>
       </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>-86.4</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="4"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>500</v>
       </c>
@@ -1695,6 +2283,14 @@
       </c>
       <c r="F76">
         <v>87</v>
+      </c>
+      <c r="G76">
+        <f>F76*-1</f>
+        <v>-87</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="4"/>
+        <v>500000</v>
       </c>
     </row>
   </sheetData>
